--- a/biology/Botanique/Liste_de_cultivars_de_pommiers_domestiques/Liste_de_cultivars_de_pommiers_domestiques.xlsx
+++ b/biology/Botanique/Liste_de_cultivars_de_pommiers_domestiques/Liste_de_cultivars_de_pommiers_domestiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste alphabétique de cultivars de pommiers domestiques donne accès aux caractéristiques détaillées des fiches variétales de l'encyclopédie. 
 Sommaire :
@@ -538,7 +550,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adam's Pearmain
@@ -586,7 +600,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Baldwin
@@ -637,7 +653,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Calville (toutes)
@@ -688,7 +706,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dayton
@@ -732,7 +752,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Early Windsor
@@ -773,7 +795,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fameuse
@@ -810,7 +834,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gala
@@ -856,7 +882,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Haralson
@@ -890,7 +918,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Idared
@@ -924,7 +954,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jacques Lebel
@@ -967,7 +999,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kaiser Wilhelm
@@ -1007,7 +1041,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lanscailler
@@ -1046,7 +1082,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Macoun
@@ -1087,7 +1125,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nanna
@@ -1123,7 +1163,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Oldenburg
@@ -1157,7 +1199,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Patte de loup
@@ -1202,7 +1246,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Rajka
@@ -1302,7 +1348,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sampion
@@ -1342,7 +1390,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tentation
@@ -1379,7 +1429,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Vanda
@@ -1413,7 +1465,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Wagener
@@ -1450,7 +1504,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Yellow Newtown Pippin
